--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1163151.652699489</v>
+        <v>1160591.468539624</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>213.0787404579733</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.68791694608933</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>42.69787603752427</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>408.0435184613415</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>204.006267020814</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>51.92096917925161</v>
       </c>
       <c r="S7" t="n">
-        <v>79.41653965146595</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>29.33515146580114</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>53.43995086960516</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>124.0961330064688</v>
       </c>
       <c r="G10" t="n">
-        <v>85.36610313819131</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238041</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114111</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2584775894124</v>
+        <v>230.6425072191466</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035295</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>54.49322057420098</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>74.02784225261934</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044209</v>
       </c>
       <c r="G14" t="n">
         <v>409.8432760127576</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353044</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>64.44601915223832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1822,13 +1822,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>126.9108972626035</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756237</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>55.52079624060374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>186.9166231085221</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>55.52079624060497</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>176.519656284926</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>35.41770597126612</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>179.2445652598087</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>36.4306205949047</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699965</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756236</v>
+        <v>160.1763464053457</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634801</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756221</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678029</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>55.52079624060497</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.095540256643</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.133023316231</v>
+        <v>709.7270322910256</v>
       </c>
       <c r="D2" t="n">
-        <v>863.8673247094805</v>
+        <v>351.4613336842751</v>
       </c>
       <c r="E2" t="n">
-        <v>478.0790721112363</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>67.0931673216287</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.695380320764</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1294.10479803527</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1004.986460539108</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>750.3019723332208</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>460.8848022962601</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>232.8952513982428</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.8952513982428</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1291.481876182945</v>
+        <v>1838.755147556638</v>
       </c>
       <c r="C5" t="n">
-        <v>922.5193592425337</v>
+        <v>1469.792630616227</v>
       </c>
       <c r="D5" t="n">
-        <v>922.5193592425337</v>
+        <v>1469.792630616227</v>
       </c>
       <c r="E5" t="n">
-        <v>536.7311066442894</v>
+        <v>1084.004378017982</v>
       </c>
       <c r="F5" t="n">
-        <v>529.785605895086</v>
+        <v>673.0184732283749</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>257.3137229526637</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182945</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.481876182945</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.000696661112</v>
       </c>
       <c r="S7" t="n">
-        <v>1556.227393153825</v>
+        <v>1584.000696661112</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.24891234856</v>
+        <v>1584.000696661112</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.130574852398</v>
+        <v>1584.000696661112</v>
       </c>
       <c r="V7" t="n">
-        <v>789.4460866465112</v>
+        <v>1584.000696661112</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.24678656800311</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="8">
@@ -4778,55 +4778,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>527.8767859460543</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C8" t="n">
-        <v>527.8767859460543</v>
+        <v>1606.350901856219</v>
       </c>
       <c r="D8" t="n">
-        <v>527.8767859460543</v>
+        <v>1248.085203249468</v>
       </c>
       <c r="E8" t="n">
-        <v>527.8767859460543</v>
+        <v>862.2969506512238</v>
       </c>
       <c r="F8" t="n">
-        <v>116.8908811564467</v>
+        <v>451.3110458616163</v>
       </c>
       <c r="G8" t="n">
-        <v>105.2265349211396</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>105.2265349211396</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
@@ -4835,19 +4835,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.25053145306</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182946</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>918.016117921866</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460543</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>751.3310369968233</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="C10" t="n">
-        <v>582.3948540689164</v>
+        <v>474.6261488621955</v>
       </c>
       <c r="D10" t="n">
-        <v>432.2782146565806</v>
+        <v>324.5095094498597</v>
       </c>
       <c r="E10" t="n">
-        <v>284.3651210741875</v>
+        <v>176.5964158674666</v>
       </c>
       <c r="F10" t="n">
-        <v>137.4751735762772</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4999,13 +4999,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.76163186861</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.772080970593</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>932.979501827063</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1946.63041881066</v>
+        <v>2309.582538042863</v>
       </c>
       <c r="C11" t="n">
-        <v>1577.667901870248</v>
+        <v>1940.620021102452</v>
       </c>
       <c r="D11" t="n">
-        <v>1219.402203263498</v>
+        <v>1582.354322495702</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>1196.566069897458</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738907</v>
+        <v>785.5801651078501</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>371.0047194374972</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469175</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386827</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420312</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765422</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687098</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856279</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882237</v>
+        <v>3835.937563882242</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234587</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455657</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455657</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088265</v>
+        <v>3672.062594867201</v>
       </c>
       <c r="V11" t="n">
-        <v>3449.604004381787</v>
+        <v>3439.090365352911</v>
       </c>
       <c r="W11" t="n">
-        <v>3096.835349111673</v>
+        <v>3086.321710082797</v>
       </c>
       <c r="X11" t="n">
-        <v>2723.369590850593</v>
+        <v>3086.321710082797</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.230258874782</v>
+        <v>2696.182378106985</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469175</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469175</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469175</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520009</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.11264789589</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.420955246956</v>
+        <v>1534.739190279346</v>
       </c>
       <c r="O12" t="n">
-        <v>2029.392508112705</v>
+        <v>2007.710743145095</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.660810952859</v>
+        <v>2367.979045985249</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826853</v>
+        <v>1021.56567769037</v>
       </c>
       <c r="C13" t="n">
-        <v>228.6277056370275</v>
+        <v>852.6294947624633</v>
       </c>
       <c r="D13" t="n">
-        <v>78.51106622469175</v>
+        <v>702.5128553501277</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469175</v>
+        <v>627.7372571151586</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469175</v>
+        <v>480.8473096172482</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469175</v>
+        <v>313.367412093791</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469175</v>
+        <v>169.132356598773</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469175</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600398</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888912</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906986</v>
+        <v>1968.108379906988</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>1968.108379906988</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.20361589732</v>
+        <v>1968.108379906988</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691433</v>
+        <v>1713.423891701101</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544725</v>
+        <v>1424.00672166414</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564551</v>
+        <v>1424.00672166414</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.319827612925</v>
+        <v>1203.21414252061</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1511.096147944828</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,58 +5410,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220735</v>
+        <v>848.5402036081964</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941665</v>
+        <v>679.6040206802894</v>
       </c>
       <c r="D16" t="n">
-        <v>325.1228070941665</v>
+        <v>529.4873812679537</v>
       </c>
       <c r="E16" t="n">
-        <v>325.1228070941665</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693318</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
         <v>1957.667456821981</v>
@@ -5470,16 +5470,16 @@
         <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1379.174073099747</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958433</v>
+        <v>1250.981247581966</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523132</v>
+        <v>1030.188668438436</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536376</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257307</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133949</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310019</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330918</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868272</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662385</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
         <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727407</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583877</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,19 +5753,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925215</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122183</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536376</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257307</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133949</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310019</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216013</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868272</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662385</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727407</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583877</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576787</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327638</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048569</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925213</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101283</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630036</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327647</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048579</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>444.701316492522</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630045</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908943</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490408</v>
       </c>
     </row>
     <row r="38">
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524077</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868275</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662388</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625427</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.30966972741</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.51709058388</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400708</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270444</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138406</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703105</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536376</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257307</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133949</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310019</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2390.881471216013</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868272</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662385</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727407</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583877</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>205.4937808807225</v>
+        <v>97.10975125098827</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>112.7536005244268</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>72.40612039394983</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034043</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146347</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>50.29152613729053</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>80.97502887069292</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>98.79875812643364</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.355920853283933e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516646</v>
+        <v>4.845153664064696</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>30.48882721876618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0033420516651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>110.0033420516645</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,13 +25123,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>213.9188905722445</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516647</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516662</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,10 +26071,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873360.2125636339</v>
+        <v>873360.2125636344</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>950468.0592548345</v>
+        <v>950468.0592548344</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159054</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159053</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955716.5822159054</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719628</v>
-      </c>
       <c r="E2" t="n">
-        <v>423807.2415876631</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918678</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="I2" t="n">
-        <v>464109.2948217535</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26353,7 +26353,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357052</v>
+        <v>325187.1190357065</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051392</v>
+        <v>166521.3471051378</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456784</v>
+        <v>84929.59434456826</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848948</v>
+        <v>43782.40655848903</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8018.19146942593</v>
+        <v>8018.191469425932</v>
       </c>
       <c r="F4" t="n">
         <v>8110.779805506622</v>
@@ -26473,10 +26473,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214702</v>
+        <v>86093.72216214713</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-869908.5386056651</v>
       </c>
       <c r="C6" t="n">
+        <v>244843.2449702545</v>
+      </c>
+      <c r="D6" t="n">
         <v>244843.2449702546</v>
       </c>
-      <c r="D6" t="n">
-        <v>244843.2449702544</v>
-      </c>
       <c r="E6" t="n">
-        <v>4508.208920384888</v>
+        <v>4298.2446765389</v>
       </c>
       <c r="F6" t="n">
-        <v>186766.6132673835</v>
+        <v>186720.7082718194</v>
       </c>
       <c r="G6" t="n">
-        <v>343702.2163355358</v>
+        <v>343667.4784100996</v>
       </c>
       <c r="H6" t="n">
-        <v>354869.4525711146</v>
+        <v>354834.714645679</v>
       </c>
       <c r="I6" t="n">
-        <v>354869.4525711144</v>
+        <v>354834.714645679</v>
       </c>
       <c r="J6" t="n">
-        <v>187264.274761132</v>
+        <v>187229.5368356963</v>
       </c>
       <c r="K6" t="n">
-        <v>354869.4525711145</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="L6" t="n">
-        <v>354869.4525711145</v>
+        <v>354834.7146456788</v>
       </c>
       <c r="M6" t="n">
-        <v>269939.8582265467</v>
+        <v>269905.1203011107</v>
       </c>
       <c r="N6" t="n">
-        <v>311087.0460126251</v>
+        <v>311052.3080871899</v>
       </c>
       <c r="O6" t="n">
-        <v>351846.15459389</v>
+        <v>351811.4166684542</v>
       </c>
       <c r="P6" t="n">
-        <v>354869.4525711144</v>
+        <v>354834.7146456789</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
-      <c r="D3" t="n">
-        <v>934.0648921175393</v>
-      </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,16 +26793,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086467</v>
+        <v>981.3883278086481</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770157</v>
+        <v>278.1053753770167</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218308</v>
+        <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086078</v>
+        <v>340.8034957086093</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173602</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086076</v>
+        <v>340.8034957086093</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173602</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086078</v>
+        <v>340.8034957086093</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173602</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>168.8516296142884</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>395.8597858268647</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>178.0508199596877</v>
+        <v>49.55154957999665</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.504184311612505</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>97.01228554159135</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>49.63660324032202</v>
       </c>
       <c r="S7" t="n">
-        <v>115.2459207102715</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>382.2125513071529</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.2699618028653</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.3249150164624</v>
       </c>
       <c r="G10" t="n">
-        <v>80.94049690661288</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.227309372627069e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485645</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508987</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307176</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726051</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216965</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857418</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.509834189838</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.05348002944</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461513</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188515</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.60730963196942</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059647</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.117821625641</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845324</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147134</v>
+        <v>253.5391629626226</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431804</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205466</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.9200147126295</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697582</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691785</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619739</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263706</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973091</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570602</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929608</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826896</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>596.0688496389795</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.3260983776882</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>397.6203974676405</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040313</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276245</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517092</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584691</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077533</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062435</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156576</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457668</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313801</v>
+        <v>122.1974508792893</v>
       </c>
       <c r="O12" t="n">
-        <v>477.749043298736</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062164</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.9382406266079</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701824</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882112</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190453</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998341</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>453.9348157169612</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
